--- a/medicine/Mort/Calvaire_des_Récollets/Calvaire_des_Récollets.xlsx
+++ b/medicine/Mort/Calvaire_des_Récollets/Calvaire_des_Récollets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calvaire_des_R%C3%A9collets</t>
+          <t>Calvaire_des_Récollets</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calvaire des Récollets de Romans-sur-Isère (Drôme) est une fidèle réplique des quatorze stations du chemin de Croix suivi par le Christ à Jérusalem, aboutissant au calvaire et à une reconstitution du Saint-Sépulcre.
 C'est un cimetière romantique classé Monument historique depuis 1986.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calvaire_des_R%C3%A9collets</t>
+          <t>Calvaire_des_Récollets</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chemin de Croix et le calvaire des Récollets furent conçus en 1516 par un riche et pieux marchand de Romans-sur-Isère, Romanet Boffin, afin de suppléer le voyage à Jérusalem rendu dangereux par les Turcs. La topographie de la ville rappelant étrangement celle de la Ville Sainte, selon deux franciscains revenant de Palestine, Boffin, après s'être lui-même rendu à Jérusalem, décida d'édifier dans la ville 14 stations aboutissant à un calvaire situé hors les murs.
 Celui-ci fut construit sur un terrain situé sur une éminence à un quart de lieue de la ville, près d'un petit ermitage. L'archevêque de Vienne qui en avait la propriété lui céda ses droits. La première pierre fut posée le 15 mars 1517. Ce calvaire fut confié aux franciscains et une chapelle (actuelle église Sainte-Croix) et un couvent furent construits.
@@ -521,7 +535,7 @@
 Saccagé en 1562 lors des guerres de Religion, il fut restauré et confié à des récollets. La Révolution française fit du calvaire un cimetière, jusqu'en 1812. Le monastère, quant à lui, fut acheté par des chartreux chassés de leurs cellules, mais ceux-ci le confirent bientôt à la ville qui en fit un établissement public.
 Restauré en 1820, le chemin de Croix compta alors 21 stations en ville et 19 dans l'enclos du calvaire. De riches chapelles funéraires furent également construites par de riches Romanais. Mais le calvaire fut abandonné à la fin du XIXe siècle.
 Il faut attendre 1967 pour que l'Association des Amis du Calvaire entreprennent les premières campagnes de débroussaillage. 
-Le calvaire et les stations font l’objet d’un classement au titre des monuments historiques depuis le 24 juillet 1986[1].
+Le calvaire et les stations font l’objet d’un classement au titre des monuments historiques depuis le 24 juillet 1986.
 </t>
         </is>
       </c>
